--- a/Perguntas.xlsx
+++ b/Perguntas.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\B-grupo2\Base de Dados\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\B-grupo2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A38E1C03-4B72-4252-877F-D6A9EFC5E925}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{698BED7E-405B-4388-8F0D-9046C9F3EC8F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7050" yWindow="525" windowWidth="21600" windowHeight="11385" xr2:uid="{6B6C1FF8-C9BA-4677-8B9E-1F319EBC7179}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{6B6C1FF8-C9BA-4677-8B9E-1F319EBC7179}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -45,13 +45,13 @@
     <t>Que medidades de segurança têm implementadas? O que acontece se o utente tentar utilizar um link de um médico?</t>
   </si>
   <si>
-    <t>Como estruturaram o sistema de facuração?</t>
-  </si>
-  <si>
     <t>Se tivessem mais um mês que mudavam ou acrescentavam ao projecto?</t>
   </si>
   <si>
     <t>Como funciona o vosso sistema de geração de vagas?</t>
+  </si>
+  <si>
+    <t>Como estruturaram o sistema de facturação?</t>
   </si>
 </sst>
 </file>
@@ -405,8 +405,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4631B95A-C288-4A28-B924-552C06A2BD00}">
   <dimension ref="A2:B7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -443,7 +443,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
@@ -451,7 +451,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
@@ -459,7 +459,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
   </sheetData>

--- a/Perguntas.xlsx
+++ b/Perguntas.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\B-grupo2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{698BED7E-405B-4388-8F0D-9046C9F3EC8F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5BABF926-9F53-4264-B0B3-5CC7682E891A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{6B6C1FF8-C9BA-4677-8B9E-1F319EBC7179}"/>
+    <workbookView xWindow="28680" yWindow="-105" windowWidth="29040" windowHeight="15840" xr2:uid="{6B6C1FF8-C9BA-4677-8B9E-1F319EBC7179}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>Como implementaram o calendário, para escolha de vagas?</t>
   </si>
@@ -52,6 +52,9 @@
   </si>
   <si>
     <t>Como estruturaram o sistema de facturação?</t>
+  </si>
+  <si>
+    <t>Max;</t>
   </si>
 </sst>
 </file>
@@ -403,10 +406,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4631B95A-C288-4A28-B924-552C06A2BD00}">
-  <dimension ref="A2:B7"/>
+  <dimension ref="A2:C7"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -414,7 +417,7 @@
     <col min="2" max="2" width="119.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -422,7 +425,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -430,7 +433,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -438,7 +441,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -446,15 +449,18 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C6" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
